--- a/Purchase Forms/PR-XXX Template.xlsx
+++ b/Purchase Forms/PR-XXX Template.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{C3BC8065-C70E-4CA6-A933-2A19DA663FAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{246784C6-4488-45B9-A25F-BD4F27A00C78}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="8_{C3BC8065-C70E-4CA6-A933-2A19DA663FAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{370E83BA-5504-4462-BFBB-2D9ED2FE3B70}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PR form" sheetId="5" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'PR form'!$A$1:$R$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'PR form'!$A$1:$R$47</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -271,13 +271,13 @@
     <t>link to product</t>
   </si>
   <si>
-    <t>Unit cost incl VAT</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
     <t>Purchase Request Form - PR - XXX</t>
+  </si>
+  <si>
+    <t>Unit cost       incl discount incl VAT</t>
   </si>
 </sst>
 </file>
@@ -726,7 +726,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
@@ -915,6 +915,20 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -932,12 +946,6 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
@@ -1733,10 +1741,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:T41"/>
+  <dimension ref="B1:T48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T16" sqref="T16"/>
+      <selection activeCell="V22" sqref="V22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -1749,8 +1757,8 @@
     <col min="6" max="6" width="16.140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="6" style="1" customWidth="1"/>
     <col min="8" max="8" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="1" customWidth="1"/>
     <col min="11" max="11" width="1.140625" style="1" customWidth="1"/>
     <col min="12" max="12" width="11.42578125" style="1" customWidth="1"/>
     <col min="13" max="13" width="1.140625" style="1" customWidth="1"/>
@@ -1761,53 +1769,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20" s="5" customFormat="1" ht="12.75" customHeight="1">
-      <c r="J1" s="85" t="s">
-        <v>65</v>
-      </c>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
+      <c r="J1" s="87" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
     </row>
     <row r="2" spans="2:20" s="6" customFormat="1" ht="12.75" customHeight="1">
       <c r="B2" s="7"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="85"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="85"/>
-      <c r="P2" s="85"/>
-      <c r="Q2" s="85"/>
-      <c r="R2" s="85"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="87"/>
+      <c r="Q2" s="87"/>
+      <c r="R2" s="87"/>
     </row>
     <row r="3" spans="2:20" ht="4.9000000000000004" customHeight="1"/>
     <row r="4" spans="2:20" s="3" customFormat="1">
-      <c r="B4" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="74"/>
-      <c r="E4" s="73" t="s">
+      <c r="B4" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="78"/>
+      <c r="E4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="124"/>
-      <c r="G4" s="124"/>
-      <c r="H4" s="124"/>
-      <c r="I4" s="124"/>
-      <c r="J4" s="74"/>
-      <c r="L4" s="73" t="s">
+      <c r="F4" s="126"/>
+      <c r="G4" s="126"/>
+      <c r="H4" s="126"/>
+      <c r="I4" s="126"/>
+      <c r="J4" s="78"/>
+      <c r="L4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="124"/>
-      <c r="N4" s="124"/>
-      <c r="O4" s="124"/>
-      <c r="P4" s="124"/>
-      <c r="Q4" s="124"/>
-      <c r="R4" s="74"/>
+      <c r="M4" s="126"/>
+      <c r="N4" s="126"/>
+      <c r="O4" s="126"/>
+      <c r="P4" s="126"/>
+      <c r="Q4" s="126"/>
+      <c r="R4" s="78"/>
       <c r="T4" s="23" t="s">
         <v>24</v>
       </c>
@@ -1820,11 +1828,11 @@
       <c r="E5" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="114"/>
-      <c r="G5" s="114"/>
-      <c r="H5" s="114"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="115"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="117"/>
       <c r="L5" s="37" t="s">
         <v>20</v>
       </c>
@@ -1844,18 +1852,18 @@
       </c>
       <c r="C6" s="67"/>
       <c r="E6" s="34"/>
-      <c r="F6" s="104"/>
-      <c r="G6" s="104"/>
-      <c r="H6" s="104"/>
-      <c r="I6" s="104"/>
-      <c r="J6" s="105"/>
-      <c r="L6" s="103"/>
-      <c r="M6" s="104"/>
-      <c r="N6" s="104"/>
-      <c r="O6" s="104"/>
-      <c r="P6" s="104"/>
-      <c r="Q6" s="104"/>
-      <c r="R6" s="105"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="106"/>
+      <c r="H6" s="106"/>
+      <c r="I6" s="106"/>
+      <c r="J6" s="107"/>
+      <c r="L6" s="105"/>
+      <c r="M6" s="106"/>
+      <c r="N6" s="106"/>
+      <c r="O6" s="106"/>
+      <c r="P6" s="106"/>
+      <c r="Q6" s="106"/>
+      <c r="R6" s="107"/>
     </row>
     <row r="7" spans="2:20">
       <c r="B7" s="34"/>
@@ -1863,20 +1871,20 @@
       <c r="E7" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="104" t="s">
+      <c r="F7" s="106" t="s">
         <v>61</v>
       </c>
-      <c r="G7" s="104"/>
-      <c r="H7" s="104"/>
-      <c r="I7" s="104"/>
-      <c r="J7" s="105"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="104"/>
-      <c r="N7" s="104"/>
-      <c r="O7" s="104"/>
-      <c r="P7" s="104"/>
-      <c r="Q7" s="104"/>
-      <c r="R7" s="105"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="107"/>
+      <c r="L7" s="105"/>
+      <c r="M7" s="106"/>
+      <c r="N7" s="106"/>
+      <c r="O7" s="106"/>
+      <c r="P7" s="106"/>
+      <c r="Q7" s="106"/>
+      <c r="R7" s="107"/>
     </row>
     <row r="8" spans="2:20" ht="12.75" customHeight="1">
       <c r="B8" s="34"/>
@@ -1884,18 +1892,18 @@
       <c r="E8" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="111"/>
-      <c r="G8" s="111"/>
-      <c r="H8" s="111"/>
-      <c r="I8" s="111"/>
-      <c r="J8" s="112"/>
-      <c r="L8" s="103"/>
-      <c r="M8" s="104"/>
-      <c r="N8" s="104"/>
-      <c r="O8" s="104"/>
-      <c r="P8" s="104"/>
-      <c r="Q8" s="104"/>
-      <c r="R8" s="105"/>
+      <c r="F8" s="113"/>
+      <c r="G8" s="113"/>
+      <c r="H8" s="113"/>
+      <c r="I8" s="113"/>
+      <c r="J8" s="114"/>
+      <c r="L8" s="105"/>
+      <c r="M8" s="106"/>
+      <c r="N8" s="106"/>
+      <c r="O8" s="106"/>
+      <c r="P8" s="106"/>
+      <c r="Q8" s="106"/>
+      <c r="R8" s="107"/>
     </row>
     <row r="9" spans="2:20">
       <c r="B9" s="34"/>
@@ -1903,18 +1911,18 @@
       <c r="E9" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="113"/>
-      <c r="G9" s="111"/>
-      <c r="H9" s="111"/>
-      <c r="I9" s="111"/>
-      <c r="J9" s="112"/>
-      <c r="L9" s="103"/>
-      <c r="M9" s="104"/>
-      <c r="N9" s="104"/>
-      <c r="O9" s="104"/>
-      <c r="P9" s="104"/>
-      <c r="Q9" s="104"/>
-      <c r="R9" s="105"/>
+      <c r="F9" s="115"/>
+      <c r="G9" s="113"/>
+      <c r="H9" s="113"/>
+      <c r="I9" s="113"/>
+      <c r="J9" s="114"/>
+      <c r="L9" s="105"/>
+      <c r="M9" s="106"/>
+      <c r="N9" s="106"/>
+      <c r="O9" s="106"/>
+      <c r="P9" s="106"/>
+      <c r="Q9" s="106"/>
+      <c r="R9" s="107"/>
     </row>
     <row r="10" spans="2:20">
       <c r="B10" s="34" t="s">
@@ -1929,13 +1937,13 @@
       <c r="H10" s="71"/>
       <c r="I10" s="71"/>
       <c r="J10" s="72"/>
-      <c r="L10" s="106"/>
-      <c r="M10" s="107"/>
-      <c r="N10" s="107"/>
-      <c r="O10" s="107"/>
-      <c r="P10" s="107"/>
-      <c r="Q10" s="107"/>
-      <c r="R10" s="108"/>
+      <c r="L10" s="108"/>
+      <c r="M10" s="109"/>
+      <c r="N10" s="109"/>
+      <c r="O10" s="109"/>
+      <c r="P10" s="109"/>
+      <c r="Q10" s="109"/>
+      <c r="R10" s="110"/>
     </row>
     <row r="11" spans="2:20">
       <c r="B11" s="34" t="s">
@@ -1954,24 +1962,24 @@
         <v>2</v>
       </c>
       <c r="C12" s="65"/>
-      <c r="E12" s="90" t="s">
+      <c r="E12" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="91"/>
-      <c r="G12" s="91"/>
-      <c r="H12" s="116"/>
-      <c r="I12" s="116"/>
-      <c r="J12" s="117"/>
-      <c r="L12" s="86" t="s">
+      <c r="F12" s="93"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="118"/>
+      <c r="I12" s="118"/>
+      <c r="J12" s="119"/>
+      <c r="L12" s="88" t="s">
         <v>57</v>
       </c>
-      <c r="M12" s="87"/>
-      <c r="N12" s="87"/>
-      <c r="O12" s="87"/>
-      <c r="P12" s="87"/>
-      <c r="Q12" s="87"/>
-      <c r="R12" s="109" t="s">
-        <v>64</v>
+      <c r="M12" s="89"/>
+      <c r="N12" s="89"/>
+      <c r="O12" s="89"/>
+      <c r="P12" s="89"/>
+      <c r="Q12" s="89"/>
+      <c r="R12" s="111" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="2:20">
@@ -1979,20 +1987,20 @@
         <v>3</v>
       </c>
       <c r="C13" s="66"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="93"/>
-      <c r="H13" s="118"/>
-      <c r="I13" s="118"/>
-      <c r="J13" s="119"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="95"/>
+      <c r="H13" s="120"/>
+      <c r="I13" s="120"/>
+      <c r="J13" s="121"/>
       <c r="K13" s="2"/>
-      <c r="L13" s="88"/>
-      <c r="M13" s="89"/>
-      <c r="N13" s="89"/>
-      <c r="O13" s="89"/>
-      <c r="P13" s="89"/>
-      <c r="Q13" s="89"/>
-      <c r="R13" s="110"/>
+      <c r="L13" s="90"/>
+      <c r="M13" s="91"/>
+      <c r="N13" s="91"/>
+      <c r="O13" s="91"/>
+      <c r="P13" s="91"/>
+      <c r="Q13" s="91"/>
+      <c r="R13" s="112"/>
     </row>
     <row r="14" spans="2:20" ht="4.9000000000000004" customHeight="1">
       <c r="C14" s="2"/>
@@ -2000,96 +2008,96 @@
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="2:20" s="8" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B15" s="100" t="s">
+      <c r="B15" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="94" t="s">
+      <c r="C15" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="129"/>
-      <c r="E15" s="100" t="s">
+      <c r="D15" s="131"/>
+      <c r="E15" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="100" t="s">
+      <c r="F15" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="G15" s="158" t="s">
+      <c r="G15" s="160" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="94" t="s">
+      <c r="H15" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="I15" s="100" t="s">
-        <v>63</v>
-      </c>
-      <c r="J15" s="100" t="s">
+      <c r="I15" s="102" t="s">
+        <v>65</v>
+      </c>
+      <c r="J15" s="102" t="s">
         <v>43</v>
       </c>
-      <c r="K15" s="128" t="s">
+      <c r="K15" s="130" t="s">
         <v>12</v>
       </c>
-      <c r="L15" s="129"/>
-      <c r="M15" s="128" t="s">
+      <c r="L15" s="131"/>
+      <c r="M15" s="130" t="s">
         <v>13</v>
       </c>
-      <c r="N15" s="129"/>
-      <c r="O15" s="100" t="s">
+      <c r="N15" s="131"/>
+      <c r="O15" s="102" t="s">
         <v>42</v>
       </c>
-      <c r="P15" s="97" t="s">
+      <c r="P15" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="Q15" s="100" t="s">
+      <c r="Q15" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="R15" s="100" t="s">
+      <c r="R15" s="102" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" spans="2:20" s="8" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B16" s="101"/>
-      <c r="C16" s="95"/>
-      <c r="D16" s="131"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="161"/>
-      <c r="G16" s="159"/>
-      <c r="H16" s="95"/>
-      <c r="I16" s="101"/>
-      <c r="J16" s="101"/>
-      <c r="K16" s="130"/>
-      <c r="L16" s="131"/>
-      <c r="M16" s="130"/>
-      <c r="N16" s="131"/>
-      <c r="O16" s="101"/>
-      <c r="P16" s="98"/>
-      <c r="Q16" s="101"/>
-      <c r="R16" s="101"/>
-    </row>
-    <row r="17" spans="2:19" s="8" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B17" s="102"/>
-      <c r="C17" s="96"/>
-      <c r="D17" s="133"/>
-      <c r="E17" s="102"/>
-      <c r="F17" s="162"/>
-      <c r="G17" s="160"/>
-      <c r="H17" s="96"/>
-      <c r="I17" s="102"/>
-      <c r="J17" s="102"/>
-      <c r="K17" s="132"/>
-      <c r="L17" s="133"/>
-      <c r="M17" s="132"/>
-      <c r="N17" s="133"/>
-      <c r="O17" s="102"/>
-      <c r="P17" s="99"/>
-      <c r="Q17" s="102"/>
-      <c r="R17" s="102"/>
-    </row>
-    <row r="18" spans="2:19" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="B16" s="103"/>
+      <c r="C16" s="97"/>
+      <c r="D16" s="133"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="163"/>
+      <c r="G16" s="161"/>
+      <c r="H16" s="97"/>
+      <c r="I16" s="103"/>
+      <c r="J16" s="103"/>
+      <c r="K16" s="132"/>
+      <c r="L16" s="133"/>
+      <c r="M16" s="132"/>
+      <c r="N16" s="133"/>
+      <c r="O16" s="103"/>
+      <c r="P16" s="100"/>
+      <c r="Q16" s="103"/>
+      <c r="R16" s="103"/>
+    </row>
+    <row r="17" spans="2:18" s="8" customFormat="1" ht="27" customHeight="1">
+      <c r="B17" s="104"/>
+      <c r="C17" s="98"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="104"/>
+      <c r="F17" s="164"/>
+      <c r="G17" s="162"/>
+      <c r="H17" s="98"/>
+      <c r="I17" s="104"/>
+      <c r="J17" s="104"/>
+      <c r="K17" s="134"/>
+      <c r="L17" s="135"/>
+      <c r="M17" s="134"/>
+      <c r="N17" s="135"/>
+      <c r="O17" s="104"/>
+      <c r="P17" s="101"/>
+      <c r="Q17" s="104"/>
+      <c r="R17" s="104"/>
+    </row>
+    <row r="18" spans="2:18" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B18" s="39"/>
-      <c r="C18" s="83" t="s">
+      <c r="C18" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="D18" s="84"/>
+      <c r="D18" s="86"/>
       <c r="E18" s="13" t="s">
         <v>25</v>
       </c>
@@ -2105,49 +2113,49 @@
         <f>I18/1.2</f>
         <v>0</v>
       </c>
-      <c r="K18" s="79">
+      <c r="K18" s="75">
         <f>H18*J18</f>
         <v>0</v>
       </c>
-      <c r="L18" s="80"/>
-      <c r="M18" s="148" t="s">
+      <c r="L18" s="76"/>
+      <c r="M18" s="150" t="s">
         <v>60</v>
       </c>
-      <c r="N18" s="149"/>
+      <c r="N18" s="151"/>
       <c r="O18" s="17"/>
       <c r="P18" s="16"/>
       <c r="Q18" s="17"/>
       <c r="R18" s="40"/>
     </row>
-    <row r="19" spans="2:19" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="19" spans="2:18" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B19" s="39"/>
-      <c r="C19" s="83"/>
-      <c r="D19" s="84"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="86"/>
       <c r="E19" s="13"/>
       <c r="F19" s="14"/>
       <c r="G19" s="15"/>
       <c r="H19" s="70"/>
       <c r="I19" s="68"/>
       <c r="J19" s="12">
-        <f t="shared" ref="J19:J26" si="0">I19/1.2</f>
-        <v>0</v>
-      </c>
-      <c r="K19" s="79">
-        <f t="shared" ref="K19:K25" si="1">H19*J19</f>
-        <v>0</v>
-      </c>
-      <c r="L19" s="80"/>
-      <c r="M19" s="150"/>
-      <c r="N19" s="151"/>
+        <f t="shared" ref="J19:J33" si="0">I19/1.2</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="75">
+        <f t="shared" ref="K19:K32" si="1">H19*J19</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="76"/>
+      <c r="M19" s="152"/>
+      <c r="N19" s="153"/>
       <c r="O19" s="17"/>
       <c r="P19" s="16"/>
       <c r="Q19" s="17"/>
       <c r="R19" s="40"/>
     </row>
-    <row r="20" spans="2:19" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="20" spans="2:18" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B20" s="39"/>
-      <c r="C20" s="83"/>
-      <c r="D20" s="84"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="86"/>
       <c r="E20" s="13"/>
       <c r="F20" s="14"/>
       <c r="G20" s="15"/>
@@ -2157,22 +2165,22 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K20" s="79">
+      <c r="K20" s="75">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L20" s="80"/>
-      <c r="M20" s="150"/>
-      <c r="N20" s="151"/>
+      <c r="L20" s="76"/>
+      <c r="M20" s="152"/>
+      <c r="N20" s="153"/>
       <c r="O20" s="17"/>
       <c r="P20" s="16"/>
       <c r="Q20" s="17"/>
       <c r="R20" s="40"/>
     </row>
-    <row r="21" spans="2:19" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="21" spans="2:18" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B21" s="39"/>
-      <c r="C21" s="83"/>
-      <c r="D21" s="84"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="86"/>
       <c r="E21" s="13"/>
       <c r="F21" s="14"/>
       <c r="G21" s="15"/>
@@ -2182,22 +2190,22 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K21" s="79">
+      <c r="K21" s="75">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L21" s="80"/>
-      <c r="M21" s="150"/>
-      <c r="N21" s="151"/>
+      <c r="L21" s="76"/>
+      <c r="M21" s="152"/>
+      <c r="N21" s="153"/>
       <c r="O21" s="17"/>
       <c r="P21" s="16"/>
       <c r="Q21" s="17"/>
       <c r="R21" s="40"/>
     </row>
-    <row r="22" spans="2:19" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="22" spans="2:18" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B22" s="39"/>
-      <c r="C22" s="83"/>
-      <c r="D22" s="84"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="86"/>
       <c r="E22" s="13"/>
       <c r="F22" s="14"/>
       <c r="G22" s="15"/>
@@ -2207,22 +2215,22 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K22" s="79">
+      <c r="K22" s="75">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L22" s="80"/>
-      <c r="M22" s="150"/>
-      <c r="N22" s="151"/>
+      <c r="L22" s="76"/>
+      <c r="M22" s="152"/>
+      <c r="N22" s="153"/>
       <c r="O22" s="17"/>
       <c r="P22" s="16"/>
       <c r="Q22" s="17"/>
       <c r="R22" s="40"/>
     </row>
-    <row r="23" spans="2:19" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="23" spans="2:18" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B23" s="39"/>
-      <c r="C23" s="83"/>
-      <c r="D23" s="84"/>
+      <c r="C23" s="85"/>
+      <c r="D23" s="86"/>
       <c r="E23" s="13"/>
       <c r="F23" s="14"/>
       <c r="G23" s="15"/>
@@ -2232,22 +2240,22 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K23" s="79">
+      <c r="K23" s="75">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L23" s="80"/>
-      <c r="M23" s="150"/>
-      <c r="N23" s="151"/>
+      <c r="L23" s="76"/>
+      <c r="M23" s="152"/>
+      <c r="N23" s="153"/>
       <c r="O23" s="17"/>
       <c r="P23" s="16"/>
       <c r="Q23" s="17"/>
       <c r="R23" s="40"/>
     </row>
-    <row r="24" spans="2:19" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="24" spans="2:18" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B24" s="39"/>
-      <c r="C24" s="83"/>
-      <c r="D24" s="84"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="86"/>
       <c r="E24" s="13"/>
       <c r="F24" s="14"/>
       <c r="G24" s="15"/>
@@ -2257,299 +2265,306 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K24" s="79">
+      <c r="K24" s="75">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L24" s="80"/>
-      <c r="M24" s="150"/>
-      <c r="N24" s="151"/>
+      <c r="L24" s="76"/>
+      <c r="M24" s="152"/>
+      <c r="N24" s="153"/>
       <c r="O24" s="17"/>
       <c r="P24" s="16"/>
       <c r="Q24" s="17"/>
       <c r="R24" s="40"/>
     </row>
-    <row r="25" spans="2:19" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="25" spans="2:18" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B25" s="39"/>
-      <c r="C25" s="83"/>
-      <c r="D25" s="84"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="74"/>
       <c r="E25" s="13"/>
       <c r="F25" s="14"/>
       <c r="G25" s="15"/>
       <c r="H25" s="70"/>
-      <c r="I25" s="68"/>
+      <c r="I25" s="70"/>
       <c r="J25" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K25" s="79">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L25" s="80"/>
-      <c r="M25" s="150"/>
-      <c r="N25" s="151"/>
+      <c r="K25" s="75">
+        <f t="shared" ref="K25:K31" si="2">H25*J25</f>
+        <v>0</v>
+      </c>
+      <c r="L25" s="76"/>
+      <c r="M25" s="152"/>
+      <c r="N25" s="153"/>
       <c r="O25" s="17"/>
       <c r="P25" s="16"/>
       <c r="Q25" s="17"/>
       <c r="R25" s="40"/>
     </row>
-    <row r="26" spans="2:19" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B26" s="41"/>
-      <c r="C26" s="163" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="164"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="69"/>
+    <row r="26" spans="2:18" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="B26" s="39"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="70"/>
+      <c r="I26" s="70"/>
       <c r="J26" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K26" s="146">
-        <f>J26</f>
-        <v>0</v>
-      </c>
-      <c r="L26" s="147"/>
+      <c r="K26" s="75">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="76"/>
       <c r="M26" s="152"/>
       <c r="N26" s="153"/>
-      <c r="O26" s="44"/>
-      <c r="P26" s="45"/>
-      <c r="Q26" s="44"/>
-      <c r="R26" s="46"/>
-    </row>
-    <row r="27" spans="2:19" ht="4.9000000000000004" customHeight="1">
-      <c r="J27" s="47"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="40"/>
+    </row>
+    <row r="27" spans="2:18" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="B27" s="39"/>
+      <c r="C27" s="73"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="K27" s="75">
-        <f>SUM(K18:K26)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L27" s="76"/>
-    </row>
-    <row r="28" spans="2:19" s="11" customFormat="1" ht="11.25">
-      <c r="B28" s="9" t="s">
+      <c r="M27" s="152"/>
+      <c r="N27" s="153"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="17"/>
+      <c r="R27" s="40"/>
+    </row>
+    <row r="28" spans="2:18" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="B28" s="39"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="70"/>
+      <c r="I28" s="70"/>
+      <c r="J28" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="75">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="76"/>
+      <c r="M28" s="152"/>
+      <c r="N28" s="153"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="40"/>
+    </row>
+    <row r="29" spans="2:18" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="B29" s="39"/>
+      <c r="C29" s="73"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="70"/>
+      <c r="I29" s="70"/>
+      <c r="J29" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="75">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="76"/>
+      <c r="M29" s="152"/>
+      <c r="N29" s="153"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="40"/>
+    </row>
+    <row r="30" spans="2:18" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="B30" s="39"/>
+      <c r="C30" s="73"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="70"/>
+      <c r="I30" s="70"/>
+      <c r="J30" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="75">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="76"/>
+      <c r="M30" s="152"/>
+      <c r="N30" s="153"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="17"/>
+      <c r="R30" s="40"/>
+    </row>
+    <row r="31" spans="2:18" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="B31" s="39"/>
+      <c r="C31" s="73"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="70"/>
+      <c r="I31" s="70"/>
+      <c r="J31" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="75">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="76"/>
+      <c r="M31" s="152"/>
+      <c r="N31" s="153"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="40"/>
+    </row>
+    <row r="32" spans="2:18" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="B32" s="39"/>
+      <c r="C32" s="85"/>
+      <c r="D32" s="86"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="70"/>
+      <c r="I32" s="68"/>
+      <c r="J32" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="75">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="76"/>
+      <c r="M32" s="152"/>
+      <c r="N32" s="153"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="17"/>
+      <c r="R32" s="40"/>
+    </row>
+    <row r="33" spans="2:19" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="B33" s="41"/>
+      <c r="C33" s="165" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="166"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="69"/>
+      <c r="J33" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="148">
+        <f>J33</f>
+        <v>0</v>
+      </c>
+      <c r="L33" s="149"/>
+      <c r="M33" s="154"/>
+      <c r="N33" s="155"/>
+      <c r="O33" s="44"/>
+      <c r="P33" s="45"/>
+      <c r="Q33" s="44"/>
+      <c r="R33" s="46"/>
+    </row>
+    <row r="34" spans="2:19" ht="4.9000000000000004" customHeight="1">
+      <c r="J34" s="47"/>
+      <c r="K34" s="79">
+        <f>SUM(K18:K33)</f>
+        <v>0</v>
+      </c>
+      <c r="L34" s="80"/>
+    </row>
+    <row r="35" spans="2:19" s="11" customFormat="1" ht="11.25">
+      <c r="B35" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="29" t="s">
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="I28" s="4"/>
-      <c r="J28" s="48" t="s">
+      <c r="I35" s="4"/>
+      <c r="J35" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="K28" s="81"/>
-      <c r="L28" s="82"/>
-      <c r="N28" s="125" t="s">
+      <c r="K35" s="83"/>
+      <c r="L35" s="84"/>
+      <c r="N35" s="127" t="s">
         <v>16</v>
       </c>
-      <c r="O28" s="126"/>
-      <c r="P28" s="126"/>
-      <c r="Q28" s="126"/>
-      <c r="R28" s="127"/>
-      <c r="S28" s="4"/>
-    </row>
-    <row r="29" spans="2:19" s="11" customFormat="1" ht="15" customHeight="1">
-      <c r="B29" s="25" t="s">
+      <c r="O35" s="128"/>
+      <c r="P35" s="128"/>
+      <c r="Q35" s="128"/>
+      <c r="R35" s="129"/>
+      <c r="S35" s="4"/>
+    </row>
+    <row r="36" spans="2:19" s="11" customFormat="1" ht="15" customHeight="1">
+      <c r="B36" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="49" t="s">
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="K29" s="77"/>
-      <c r="L29" s="78"/>
-      <c r="N29" s="53"/>
-      <c r="O29" s="18"/>
-      <c r="P29" s="18"/>
-      <c r="Q29" s="18"/>
-      <c r="R29" s="54"/>
-      <c r="S29" s="4"/>
-    </row>
-    <row r="30" spans="2:19" s="11" customFormat="1" ht="15" customHeight="1">
-      <c r="B30" s="25" t="s">
+      <c r="K36" s="81"/>
+      <c r="L36" s="82"/>
+      <c r="N36" s="53"/>
+      <c r="O36" s="18"/>
+      <c r="P36" s="18"/>
+      <c r="Q36" s="18"/>
+      <c r="R36" s="54"/>
+      <c r="S36" s="4"/>
+    </row>
+    <row r="37" spans="2:19" s="11" customFormat="1" ht="15" customHeight="1">
+      <c r="B37" s="25" t="s">
         <v>51</v>
-      </c>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="K30" s="75">
-        <f>K27*$F$41</f>
-        <v>0</v>
-      </c>
-      <c r="L30" s="76"/>
-      <c r="N30" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="O30" s="25"/>
-      <c r="P30" s="25"/>
-      <c r="Q30" s="22"/>
-      <c r="R30" s="56"/>
-      <c r="S30" s="4"/>
-    </row>
-    <row r="31" spans="2:19" s="11" customFormat="1" ht="15" customHeight="1">
-      <c r="B31" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="K31" s="77"/>
-      <c r="L31" s="78"/>
-      <c r="N31" s="55" t="s">
-        <v>46</v>
-      </c>
-      <c r="O31" s="25"/>
-      <c r="P31" s="120" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q31" s="120"/>
-      <c r="R31" s="56"/>
-      <c r="S31" s="4"/>
-    </row>
-    <row r="32" spans="2:19" s="11" customFormat="1" ht="15" customHeight="1">
-      <c r="B32" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="K32" s="75">
-        <f>SUM(K27:K30)</f>
-        <v>0</v>
-      </c>
-      <c r="L32" s="76"/>
-      <c r="N32" s="57"/>
-      <c r="O32" s="25"/>
-      <c r="P32" s="25"/>
-      <c r="Q32" s="22"/>
-      <c r="R32" s="56"/>
-      <c r="S32" s="4"/>
-    </row>
-    <row r="33" spans="2:19" s="11" customFormat="1" ht="15" customHeight="1">
-      <c r="B33" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="51" t="s">
-        <v>37</v>
-      </c>
-      <c r="K33" s="77"/>
-      <c r="L33" s="78"/>
-      <c r="N33" s="55" t="s">
-        <v>44</v>
-      </c>
-      <c r="O33" s="25"/>
-      <c r="P33" s="25"/>
-      <c r="Q33" s="22"/>
-      <c r="R33" s="56"/>
-      <c r="S33" s="4"/>
-    </row>
-    <row r="34" spans="2:19" s="11" customFormat="1" ht="15" customHeight="1">
-      <c r="B34" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="4"/>
-      <c r="N34" s="58" t="s">
-        <v>46</v>
-      </c>
-      <c r="O34" s="59"/>
-      <c r="P34" s="121" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q34" s="121"/>
-      <c r="R34" s="60"/>
-      <c r="S34" s="4"/>
-    </row>
-    <row r="35" spans="2:19" s="11" customFormat="1" ht="7.5" customHeight="1">
-      <c r="B35" s="155" t="s">
-        <v>58</v>
-      </c>
-      <c r="C35" s="155"/>
-      <c r="D35" s="155"/>
-      <c r="E35" s="155"/>
-      <c r="F35" s="155"/>
-      <c r="G35" s="155"/>
-      <c r="H35" s="156"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="134" t="s">
-        <v>26</v>
-      </c>
-      <c r="K35" s="135"/>
-      <c r="L35" s="136"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="4"/>
-      <c r="S35" s="4"/>
-    </row>
-    <row r="36" spans="2:19" s="11" customFormat="1" ht="7.5" customHeight="1">
-      <c r="B36" s="155"/>
-      <c r="C36" s="155"/>
-      <c r="D36" s="155"/>
-      <c r="E36" s="155"/>
-      <c r="F36" s="155"/>
-      <c r="G36" s="155"/>
-      <c r="H36" s="157"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="137"/>
-      <c r="K36" s="138"/>
-      <c r="L36" s="139"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="4"/>
-      <c r="S36" s="4"/>
-    </row>
-    <row r="37" spans="2:19" s="11" customFormat="1" ht="15" customHeight="1">
-      <c r="B37" s="32" t="s">
-        <v>54</v>
       </c>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
@@ -2558,21 +2573,26 @@
       <c r="G37" s="25"/>
       <c r="H37" s="33"/>
       <c r="I37" s="4"/>
-      <c r="J37" s="140"/>
-      <c r="K37" s="138"/>
-      <c r="L37" s="139"/>
-      <c r="N37" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="O37" s="61"/>
-      <c r="P37" s="61"/>
-      <c r="Q37" s="61"/>
-      <c r="R37" s="62"/>
+      <c r="J37" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="K37" s="79">
+        <f>K34*$F$48</f>
+        <v>0</v>
+      </c>
+      <c r="L37" s="80"/>
+      <c r="N37" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="O37" s="25"/>
+      <c r="P37" s="25"/>
+      <c r="Q37" s="22"/>
+      <c r="R37" s="56"/>
       <c r="S37" s="4"/>
     </row>
     <row r="38" spans="2:19" s="11" customFormat="1" ht="15" customHeight="1">
-      <c r="B38" s="32" t="s">
-        <v>55</v>
+      <c r="B38" s="25" t="s">
+        <v>19</v>
       </c>
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
@@ -2581,21 +2601,25 @@
       <c r="G38" s="25"/>
       <c r="H38" s="33"/>
       <c r="I38" s="4"/>
-      <c r="J38" s="140"/>
-      <c r="K38" s="138"/>
-      <c r="L38" s="139"/>
-      <c r="N38" s="63" t="s">
-        <v>38</v>
-      </c>
-      <c r="O38" s="122"/>
-      <c r="P38" s="122"/>
+      <c r="J38" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="K38" s="81"/>
+      <c r="L38" s="82"/>
+      <c r="N38" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="O38" s="25"/>
+      <c r="P38" s="122" t="s">
+        <v>45</v>
+      </c>
       <c r="Q38" s="122"/>
-      <c r="R38" s="123"/>
+      <c r="R38" s="56"/>
       <c r="S38" s="4"/>
     </row>
     <row r="39" spans="2:19" s="11" customFormat="1" ht="15" customHeight="1">
-      <c r="B39" s="32" t="s">
-        <v>56</v>
+      <c r="B39" s="25" t="s">
+        <v>50</v>
       </c>
       <c r="C39" s="25"/>
       <c r="D39" s="25"/>
@@ -2604,64 +2628,223 @@
       <c r="G39" s="25"/>
       <c r="H39" s="33"/>
       <c r="I39" s="4"/>
-      <c r="J39" s="141"/>
-      <c r="K39" s="142"/>
-      <c r="L39" s="143"/>
-      <c r="N39" s="64" t="s">
+      <c r="J39" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="K39" s="79">
+        <f>SUM(K34:K37)</f>
+        <v>0</v>
+      </c>
+      <c r="L39" s="80"/>
+      <c r="N39" s="57"/>
+      <c r="O39" s="25"/>
+      <c r="P39" s="25"/>
+      <c r="Q39" s="22"/>
+      <c r="R39" s="56"/>
+      <c r="S39" s="4"/>
+    </row>
+    <row r="40" spans="2:19" s="11" customFormat="1" ht="15" customHeight="1">
+      <c r="B40" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="K40" s="81"/>
+      <c r="L40" s="82"/>
+      <c r="N40" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="O40" s="25"/>
+      <c r="P40" s="25"/>
+      <c r="Q40" s="22"/>
+      <c r="R40" s="56"/>
+      <c r="S40" s="4"/>
+    </row>
+    <row r="41" spans="2:19" s="11" customFormat="1" ht="15" customHeight="1">
+      <c r="B41" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="4"/>
+      <c r="N41" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="O41" s="59"/>
+      <c r="P41" s="123" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q41" s="123"/>
+      <c r="R41" s="60"/>
+      <c r="S41" s="4"/>
+    </row>
+    <row r="42" spans="2:19" s="11" customFormat="1" ht="7.5" customHeight="1">
+      <c r="B42" s="157" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" s="157"/>
+      <c r="D42" s="157"/>
+      <c r="E42" s="157"/>
+      <c r="F42" s="157"/>
+      <c r="G42" s="157"/>
+      <c r="H42" s="158"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="136" t="s">
+        <v>26</v>
+      </c>
+      <c r="K42" s="137"/>
+      <c r="L42" s="138"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
+      <c r="S42" s="4"/>
+    </row>
+    <row r="43" spans="2:19" s="11" customFormat="1" ht="7.5" customHeight="1">
+      <c r="B43" s="157"/>
+      <c r="C43" s="157"/>
+      <c r="D43" s="157"/>
+      <c r="E43" s="157"/>
+      <c r="F43" s="157"/>
+      <c r="G43" s="157"/>
+      <c r="H43" s="159"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="139"/>
+      <c r="K43" s="140"/>
+      <c r="L43" s="141"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
+      <c r="S43" s="4"/>
+    </row>
+    <row r="44" spans="2:19" s="11" customFormat="1" ht="15" customHeight="1">
+      <c r="B44" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="33"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="142"/>
+      <c r="K44" s="140"/>
+      <c r="L44" s="141"/>
+      <c r="N44" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="O44" s="61"/>
+      <c r="P44" s="61"/>
+      <c r="Q44" s="61"/>
+      <c r="R44" s="62"/>
+      <c r="S44" s="4"/>
+    </row>
+    <row r="45" spans="2:19" s="11" customFormat="1" ht="15" customHeight="1">
+      <c r="B45" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="33"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="142"/>
+      <c r="K45" s="140"/>
+      <c r="L45" s="141"/>
+      <c r="N45" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="O45" s="124"/>
+      <c r="P45" s="124"/>
+      <c r="Q45" s="124"/>
+      <c r="R45" s="125"/>
+      <c r="S45" s="4"/>
+    </row>
+    <row r="46" spans="2:19" s="11" customFormat="1" ht="15" customHeight="1">
+      <c r="B46" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="33"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="143"/>
+      <c r="K46" s="144"/>
+      <c r="L46" s="145"/>
+      <c r="N46" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="O39" s="144"/>
-      <c r="P39" s="144"/>
-      <c r="Q39" s="144"/>
-      <c r="R39" s="145"/>
-      <c r="S39" s="4"/>
-    </row>
-    <row r="40" spans="2:19" s="19" customFormat="1" ht="8.25">
-      <c r="I40" s="21"/>
-      <c r="R40" s="20" t="s">
+      <c r="O46" s="146"/>
+      <c r="P46" s="146"/>
+      <c r="Q46" s="146"/>
+      <c r="R46" s="147"/>
+      <c r="S46" s="4"/>
+    </row>
+    <row r="47" spans="2:19" s="19" customFormat="1" ht="8.25">
+      <c r="I47" s="21"/>
+      <c r="R47" s="20" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="2:19">
-      <c r="B41" s="26"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="154" t="s">
+    <row r="48" spans="2:19">
+      <c r="B48" s="26"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="156" t="s">
         <v>48</v>
       </c>
-      <c r="E41" s="154"/>
-      <c r="F41" s="27">
+      <c r="E48" s="156"/>
+      <c r="F48" s="27">
         <v>0.2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="58">
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="B35:G36"/>
-    <mergeCell ref="H35:H36"/>
+  <mergeCells count="65">
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="B42:G43"/>
+    <mergeCell ref="H42:H43"/>
     <mergeCell ref="J15:J17"/>
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="G15:G17"/>
     <mergeCell ref="C15:D17"/>
     <mergeCell ref="F15:F17"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C24:D24"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="O38:R38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="O45:R45"/>
     <mergeCell ref="E4:J4"/>
     <mergeCell ref="L4:R4"/>
-    <mergeCell ref="N28:R28"/>
+    <mergeCell ref="N35:R35"/>
     <mergeCell ref="O15:O17"/>
     <mergeCell ref="E15:E17"/>
     <mergeCell ref="K15:L17"/>
     <mergeCell ref="M15:N17"/>
-    <mergeCell ref="J35:L39"/>
-    <mergeCell ref="O39:R39"/>
+    <mergeCell ref="J42:L46"/>
+    <mergeCell ref="O46:R46"/>
     <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M18:N26"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M18:N33"/>
     <mergeCell ref="K23:L23"/>
     <mergeCell ref="J1:R2"/>
     <mergeCell ref="L12:Q13"/>
@@ -2679,24 +2862,31 @@
     <mergeCell ref="H12:J13"/>
     <mergeCell ref="I15:I17"/>
     <mergeCell ref="B4:C4"/>
-    <mergeCell ref="K30:L31"/>
-    <mergeCell ref="K32:L33"/>
+    <mergeCell ref="K37:L38"/>
+    <mergeCell ref="K39:L40"/>
     <mergeCell ref="K20:L20"/>
     <mergeCell ref="K19:L19"/>
     <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K27:L29"/>
+    <mergeCell ref="K34:L36"/>
     <mergeCell ref="K21:L21"/>
     <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K32:L32"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C22:D22"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K30:L30"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Enter Y or N" error="please enter Y or N as applicable" sqref="E18:F25" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Enter Y or N" error="please enter Y or N as applicable" sqref="E18:F32" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$T$4:$T$5</formula1>
     </dataValidation>
   </dataValidations>
@@ -2947,13 +3137,37 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11BA66C4-BFC0-4A58-8F03-11D578146319}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11BA66C4-BFC0-4A58-8F03-11D578146319}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8a9ab932-8d5f-434f-9943-a12ed8c37506"/>
+    <ds:schemaRef ds:uri="dbabd0f9-d069-4726-a510-fc5c48f16187"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F908C44F-CE61-4D8E-BC69-B5EE746B513A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F908C44F-CE61-4D8E-BC69-B5EE746B513A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CF42DD7-633D-4440-84E6-181828C4076B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CF42DD7-633D-4440-84E6-181828C4076B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>